--- a/Defense/CW.xlsx
+++ b/Defense/CW.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C011F488-EC63-1343-92BB-44E8BF187F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAA00D-932A-AA43-848C-7984063F598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'DCF Model'!$A$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'DCF Model'!$A$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'DCF Model'!$A$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Market Cap</t>
   </si>
@@ -170,6 +186,9 @@
   <si>
     <t>Shares</t>
   </si>
+  <si>
+    <t>Updated on 10/23/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +200,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +256,19 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -438,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -472,9 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,18 +549,6 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -541,9 +558,6 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -553,9 +567,6 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -563,9 +574,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,6 +654,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,6 +710,1130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12459034577199588"/>
+          <c:y val="0.13123196735444564"/>
+          <c:w val="0.83714878466278686"/>
+          <c:h val="0.57985660095407787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DCF Model'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3182CE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2341000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2501000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2557000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2845000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3049000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3218000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3426000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3525000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3691000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92AA-4244-AA99-ADA15FF08D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DCF Model'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F27836"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>201000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>355000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>407000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>479000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>495000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>525000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92AA-4244-AA99-ADA15FF08D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DCF Model'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00AF3B"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCF Model'!$B$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>354000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>438000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>476000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92AA-4244-AA99-ADA15FF08D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1416113199"/>
+        <c:axId val="1408763071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1416113199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408763071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1408763071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1416113199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2607126326600479"/>
+          <c:y val="0.86314414621529978"/>
+          <c:w val="0.5121665183156453"/>
+          <c:h val="7.2391229380998914E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Helvetica Neue" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA8E831-5FDD-7E17-5DAC-862AF4D33907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,11 +1956,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>371.03750000000002</v>
-    <v>203.22</v>
-    <v>1.1802999999999999</v>
-    <v>10.36</v>
-    <v>2.9599E-2</v>
+    <v>381.33</v>
+    <v>203.60499999999999</v>
+    <v>1.1879</v>
+    <v>-0.19</v>
+    <v>-5.0339999999999998E-4</v>
+    <v>0.01</v>
+    <v>2.6510000000000002E-5</v>
     <v>USD</v>
     <v>Curtiss-Wright Corporation is a global integrated business that provides engineered products, solutions, and services mainly to aerospace and defense markets, and critical technologies in demanding commercial power, process, and industrial markets. The Company’s Aerospace &amp; Industrial segment consists of businesses that provide a diversified offering of engineered products and services supporting critical applications primarily across the commercial aerospace and general industrial markets. Its Defense Electronics segment comprises businesses that primarily provide products to the defense markets and to a lesser extent the commercial aerospace market. Its Naval &amp; Power segment comprises businesses that provide products to the naval defense market and, to a lesser extent, the power and process and aerospace defense markets. This segment also offers simulation technology that supports the design, commissioning, and operation of commercial nuclear power generation and process plant.</v>
     <v>8600</v>
@@ -797,24 +1970,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>130 Harbour Place Drive, Suite 300, DAVIDSON, NC, 28036 US</v>
-    <v>361.86</v>
+    <v>381.33</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45602.000000046093</v>
+    <v>45603.911685995314</v>
     <v>0</v>
-    <v>352.28</v>
-    <v>13675385626</v>
+    <v>369.88</v>
+    <v>14316709868</v>
     <v>CURTISS-WRIGHT CORPORATION</v>
     <v>CURTISS-WRIGHT CORPORATION</v>
-    <v>353.2</v>
-    <v>34.065399999999997</v>
-    <v>350.01</v>
-    <v>360.37</v>
+    <v>376.89</v>
+    <v>35.662999999999997</v>
+    <v>377.46</v>
+    <v>377.27</v>
+    <v>377.28</v>
     <v>37948180</v>
     <v>CW</v>
     <v>CURTISS-WRIGHT CORPORATION (XNYS:CW)</v>
-    <v>101</v>
-    <v>258284</v>
+    <v>248118</v>
+    <v>256807</v>
     <v>1929</v>
   </rv>
   <rv s="2">
@@ -846,6 +2020,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -866,6 +2042,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -882,7 +2059,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -893,13 +2070,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -965,13 +2145,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1016,6 +2202,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1023,6 +2212,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1399,12 +2591,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0E2841"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E8E8E8"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="156082"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="E97132"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="196B24"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="0F9ED5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="A02B93"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="4EA72E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="467886"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="96607D"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54989D48-4DCD-DB43-B1DE-662CF0EB5313}">
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,64 +2892,66 @@
     <col min="18" max="18" width="19" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="e" vm="1">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" cm="1">
+      <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>360.37</v>
+        <v>377.27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>4.4852035506723515</v>
+        <v>4.6955427576254509</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="44">
         <f>E14</f>
         <v>0.3750439367311072</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="53" cm="1">
+      <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
         <v>32888191.589288048</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="45">
         <f>J18*(1+K4)/(I6-K4)</f>
         <v>7311666666.666666</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="76"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
@@ -1480,44 +2960,44 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" cm="1">
+      <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.9599E-2</v>
+        <v>-5.0339999999999998E-4</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.600456083538084</v>
+        <v>35.176191321867321</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="52">
-        <f>E17</f>
-        <v>0.12478031634446397</v>
+      <c r="E4" s="44">
+        <f>F17</f>
+        <v>0.13348638897999343</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="55">
         <v>406000000</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="45">
         <f>NPV(I6,F18,G18,H18,I18,(J18+I3))</f>
         <v>6352733647.5195198</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="2"/>
@@ -1528,41 +3008,41 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>13675385626</v>
+        <v>14316709868</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.1004610151093664E-2</v>
+        <v>2.9615742996070889E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="52">
-        <f>E20</f>
-        <v>0.1539543057996485</v>
+      <c r="E5" s="44">
+        <f>F20</f>
+        <v>0.13906198753689733</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="55">
         <v>1208000000</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="45">
         <f>I4+G4-G5</f>
         <v>5550733647.5195198</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="47">
         <f ca="1">I5/G3</f>
         <v>168.77588518206755</v>
       </c>
@@ -1577,44 +3057,44 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" cm="1">
+      <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1802999999999999</v>
+        <v>1.1879</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <f>K22</f>
         <v>-2.6667884524169277E-2</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="54">
         <v>0.112</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="46">
         <f>G4-G5</f>
         <v>-802000000</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="53">
         <v>0.1</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.53165944672956256</v>
-      </c>
-      <c r="L6" s="16" t="s">
+        <v>-0.55263899811257833</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="2"/>
@@ -1645,16 +3125,16 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="14"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1665,35 +3145,35 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57">
         <v>2020</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="57">
         <v>2021</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="57">
         <v>2022</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="58">
         <v>2023</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>2024</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="64">
         <v>2025</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <v>2026</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <v>2027</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="65">
         <v>2028</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1703,37 +3183,37 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>2341000000</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>2501000000</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>2557000000</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>2845000000</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="66">
         <v>3049000000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="66">
         <v>3218000000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="66">
         <v>3426000000</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="66">
         <v>3525000000</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="66">
         <v>3691000000</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="67" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -1745,41 +3225,41 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>6.8346860316104152E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>2.2391043582566938E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>0.11263199061400075</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>7.1704745166959682E-2</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>5.5428009183338789E-2</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>6.4636420136730877E-2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
         <v>2.8896672504378218E-2</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f t="shared" si="0"/>
         <v>4.7092198581560218E-2</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="68">
         <f>AVERAGE(F11:J11)</f>
         <v>5.3551609114593557E-2</v>
       </c>
@@ -1791,28 +3271,28 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>842000000</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>929000000</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>954000000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>1067000000</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="29"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="69"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1821,27 +3301,27 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34">
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
         <f>(C12/B12)-1</f>
         <v>0.10332541567695963</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="29">
         <f>(D12/C12)-1</f>
         <v>2.6910656620021456E-2</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="30">
         <f>(E12/D12)-1</f>
         <v>0.11844863731656186</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1850,32 +3330,32 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <f>B12/B10</f>
         <v>0.35967535241349852</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <f>C12/C10</f>
         <v>0.37145141943222709</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>D12/D10</f>
         <v>0.37309346890887757</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f>E12/E10</f>
         <v>0.3750439367311072</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="31"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1885,37 +3365,37 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>201000000</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>263000000</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>294000000</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>355000000</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="66">
         <v>407000000</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="66">
         <v>436000000</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="66">
         <v>479000000</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="66">
         <v>495000000</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="66">
         <v>525000000</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -1927,41 +3407,41 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
         <f t="shared" ref="C16:J16" si="1">(C15/B15)-1</f>
         <v>0.308457711442786</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="29">
         <f t="shared" si="1"/>
         <v>0.11787072243346008</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>0.20748299319727881</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>0.14647887323943665</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>7.1253071253071232E-2</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="29">
         <f t="shared" si="1"/>
         <v>9.8623853211009083E-2</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
         <v>3.3402922755741082E-2</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="30">
         <f t="shared" si="1"/>
         <v>6.0606060606060552E-2</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="70">
         <f>AVERAGE(G16:J16)</f>
         <v>6.5971476956470487E-2</v>
       </c>
@@ -1989,7 +3469,7 @@
         <f t="shared" si="2"/>
         <v>0.11497849041845913</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f t="shared" si="2"/>
         <v>0.12478031634446397</v>
       </c>
@@ -2009,11 +3489,11 @@
         <f t="shared" si="2"/>
         <v>0.14042553191489363</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="27">
         <f t="shared" si="2"/>
         <v>0.14223787591438636</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2023,37 +3503,37 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>354000000</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>377000000</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>329000000</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>438000000</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="66">
         <v>424000000</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="66">
         <v>456000000</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="66">
         <v>476000000</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="66">
         <v>528000000</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="66">
         <v>535000000</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="67" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -2064,41 +3544,41 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34">
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
         <f t="shared" ref="C19:J19" si="3">(C18/B18)-1</f>
         <v>6.4971751412429279E-2</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="29">
         <f t="shared" si="3"/>
         <v>-0.12732095490716178</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="30">
         <f t="shared" si="3"/>
         <v>0.33130699088145898</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <f t="shared" si="3"/>
         <v>-3.1963470319634757E-2</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="29">
         <f t="shared" si="3"/>
         <v>7.547169811320753E-2</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="29">
         <f t="shared" si="3"/>
         <v>4.3859649122806932E-2</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="29">
         <f t="shared" si="3"/>
         <v>0.10924369747899165</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>1.325757575757569E-2</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="70">
         <f>AVERAGE(G19:J19)</f>
         <v>6.0458155118145451E-2</v>
       </c>
@@ -2111,46 +3591,46 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="35">
         <f t="shared" ref="B20:J20" si="4">B18/B10</f>
         <v>0.1512174284493806</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="35">
         <f t="shared" si="4"/>
         <v>0.15073970411835266</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="35">
         <f t="shared" si="4"/>
         <v>0.12866640594446618</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="36">
         <f t="shared" si="4"/>
         <v>0.1539543057996485</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="35">
         <f t="shared" si="4"/>
         <v>0.13906198753689733</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="35">
         <f t="shared" si="4"/>
         <v>0.14170292106898694</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="35">
         <f t="shared" si="4"/>
         <v>0.13893753648569759</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="35">
         <f t="shared" si="4"/>
         <v>0.1497872340425532</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="36">
         <f t="shared" si="4"/>
         <v>0.14494716878894609</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2159,28 +3639,28 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>41502000</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>39240000</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>38308000</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>38241000</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="29" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="67" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -2190,27 +3670,27 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="38">
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32">
         <f t="shared" ref="C22" si="5">(C21/B21)-1</f>
         <v>-5.4503397426630018E-2</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="32">
         <f t="shared" ref="D22" si="6">(D21/C21)-1</f>
         <v>-2.3751274209989792E-2</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="33">
         <f t="shared" ref="E22" si="7">(E21/D21)-1</f>
         <v>-1.7489819358880165E-3</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="40">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="74">
         <f>AVERAGE(C22:E22)</f>
         <v>-2.6667884524169277E-2</v>
       </c>
@@ -2244,17 +3724,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="str" cm="1">
+      <c r="A25" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70" cm="1">
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1929</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2270,11 +3750,11 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2289,14 +3769,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="str" cm="1">
+      <c r="A27" s="63" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Curtiss-Wright Corporation is a global integrated business that provides engineered products, solutions, and services mainly to aerospace and defense markets, and critical technologies in demanding commercial power, process, and industrial markets. The Company’s Aerospace &amp; Industrial segment consists of businesses that provide a diversified offering of engineered products and services supporting critical applications primarily across the commercial aerospace and general industrial markets. Its Defense Electronics segment comprises businesses that primarily provide products to the defense markets and to a lesser extent the commercial aerospace market. Its Naval &amp; Power segment comprises businesses that provide products to the naval defense market and, to a lesser extent, the power and process and aerospace defense markets. This segment also offers simulation technology that supports the design, commissioning, and operation of commercial nuclear power generation and process plant.</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2312,11 +3792,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2332,11 +3812,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2352,11 +3832,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2372,11 +3852,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2392,11 +3872,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2412,11 +3892,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2432,11 +3912,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2452,11 +3932,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3210,15 +4690,17 @@
       <c r="P111" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A27:E35"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:HWM/explorer/revenue_proj" xr:uid="{09D8D358-F35F-CF4E-83D8-9899DD62D813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>